--- a/Semister 3-2/ICS/ProtectionProtocol.xlsx
+++ b/Semister 3-2/ICS/ProtectionProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naraw\Documents\GitHub\ClassDocs\Semister 3-2\ICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3F933B-28A3-4197-A380-53059D241C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B573804-3B6B-4531-987E-D1E028CB0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F31A7BE-4AD5-46A8-B7E0-597039028149}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>การป้องกันการคุกคามทางเครือค่าย / การกำหนดนโยบายทางเครือค่าย</t>
   </si>
@@ -52,14 +53,44 @@
     <t>Firewall NG</t>
   </si>
   <si>
-    <t>Host-based Firewall</t>
+    <t>Bittorent</t>
+  </si>
+  <si>
+    <t>Video Streaming</t>
+  </si>
+  <si>
+    <t>Ragnarok Game</t>
+  </si>
+  <si>
+    <t>SQL injection</t>
+  </si>
+  <si>
+    <t>Sniffer</t>
+  </si>
+  <si>
+    <t>Sync Flood</t>
+  </si>
+  <si>
+    <t>ICMP Flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurf Attack </t>
+  </si>
+  <si>
+    <t>Teardrop Attack</t>
+  </si>
+  <si>
+    <t>TFN</t>
+  </si>
+  <si>
+    <t>62010465 นรวิชญ์ อยู่บัว</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +116,13 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -104,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,25 +165,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -462,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6EF0FE-5C1F-4960-96EF-9FA996BCE345}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A6:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,31 +549,129 @@
     <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semister 3-2/ICS/ProtectionProtocol.xlsx
+++ b/Semister 3-2/ICS/ProtectionProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naraw\Documents\GitHub\ClassDocs\Semister 3-2\ICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B573804-3B6B-4531-987E-D1E028CB0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33491AF5-5F7D-48E3-BCF9-FD4B17A935E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F31A7BE-4AD5-46A8-B7E0-597039028149}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,18 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
@@ -124,17 +115,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,41 +173,38 @@
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,6 +218,2131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89143AE1-4EAA-4A93-9FA9-B31708AD6F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="3943349"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B1BB7-FAA2-4589-A545-60F07C87B051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="3914774"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E0F2EB-9C85-46A8-BA96-BD89DBB41B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="3895724"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42EDABA-A006-471E-A2BD-D41D211DEDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="4295774"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788E160B-1DFF-49F3-BA23-80A90398E679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="4105274"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F2DA32-6C68-414D-B9AC-BB8A25C3A480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="4305299"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF683265-E021-4494-997D-042918090DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="4286249"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F171B1-B523-4744-A554-913622D8CEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="4467224"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58A53DD-482F-4841-AD9F-F57869AF5793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="4495799"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C6990B-8CEE-48ED-A2DC-3220E89656FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="4638674"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0C1D2F-C764-43B1-B376-8A8BC64EA93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="4648199"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3FB90-85CA-419B-B1F3-FF7FDD55E0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8753475" y="4838699"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A45C485-D138-4493-8D66-0A01433EDBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="4838699"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB4D974-EF8B-4122-8819-DF1A3ADF8B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="5019674"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F03DC9-1F71-45BA-BB5A-F208FBBF2E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="5000624"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364C8536-E828-47B7-8120-EC19825C1715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="5191124"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89147995-70D7-42B7-9CAC-8CD40C8DDF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="5191124"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1689318A-5BC0-40DC-8471-511FB2D5406F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="5381624"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD86DB78-293E-4EDD-AC2E-54858DF2207A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="5400674"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphic 21" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131D4B26-8327-46BD-AB2A-195B60F5C178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="5553074"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E5DCEE-CFFB-4C58-80FB-B52185A9B253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="5572124"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Graphic 23" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7D778E-492B-489F-AF61-283DD8803186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="4305299"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673F1659-0DC7-435D-B2B6-853E00CC580B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="4495799"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphic 25" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9270717B-AEFB-4DCF-8169-238931AEADA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="4657724"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980B139C-EE56-49BF-82B6-7619368F0044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="5010149"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphic 27" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA12E15F-0E8D-40C9-82CC-2E573D24738F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="5200649"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C976B56F-32D3-4735-8E75-00EC16B9BED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="5019674"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371D0E60-0577-49BF-A629-520AA9057D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="5191124"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AB01FC-1310-4177-9D0D-C55D1E969491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="5391149"/>
+          <a:ext cx="295275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Graphic 32" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2394EBA-2852-49D9-A7DF-EE0A42A4515A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381626" y="3952874"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Graphic 33" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD650C18-9D5D-4A1E-86CC-0B2AA61CC841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381626" y="4333874"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Graphic 34" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49861DF5-F502-4666-9D67-B8910BADD74F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391151" y="4695824"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Graphic 35" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C16CB01-7BD1-4D8D-8561-F2558BF79D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381626" y="5076824"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Graphic 36" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA50DA8-426C-44B2-B7EC-66A6E0BFD814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372101" y="5791199"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphic 37" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26411559-716B-4BE6-9FFD-FD47418B0596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391151" y="6848474"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Graphic 38" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615A4819-257E-47CD-856A-209AAEAE4DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400676" y="7219949"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C7830-F829-42F0-A7D4-EEC6278914D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067551" y="4305299"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A399FC1B-EC7F-46FD-AED3-C7EE6199A7B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067551" y="5419724"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981076</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF28F44-4A2C-400B-BB8D-E2437DD350EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067551" y="5781674"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42" descr="Close with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD48FA0-78F3-428D-B85D-05D987B7FECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058026" y="7200899"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6EF0FE-5C1F-4960-96EF-9FA996BCE345}">
   <dimension ref="A6:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,121 +2665,132 @@
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>